--- a/biology/Histoire de la zoologie et de la botanique/Eugène-Victorin_Chichou/Eugène-Victorin_Chichou.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugène-Victorin_Chichou/Eugène-Victorin_Chichou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne-Victorin_Chichou</t>
+          <t>Eugène-Victorin_Chichou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène-Victorin Chichou, né le 30 avril 1828 à Bivilliers (Orne)[1] et mort le 7 juillet 1904 à Exmes (Orne), est un botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène-Victorin Chichou, né le 30 avril 1828 à Bivilliers (Orne) et mort le 7 juillet 1904 à Exmes (Orne), est un botaniste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne-Victorin_Chichou</t>
+          <t>Eugène-Victorin_Chichou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un maréchal-ferrant, il est ordonné prêtre le 5 juin 1852, et aussitôt nommé professeur d'abord au séminaire de Sées, puis 9 ans plus tard à celui de La Ferté-Macé le 1er octobre 1861. À partir du 20 août 1871. il devient curé-doyen d’Exmes et le restera jusqu'à sa mort.
 L’abbé Chichou a étudié avec beaucoup de soin la végétation des environs de Sées, et fut plusieurs fois cité dans la Flore de Normandie (3e édition).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne-Victorin_Chichou</t>
+          <t>Eugène-Victorin_Chichou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cours élémentaire de Géographie, in-18, 560 p., Paris, Poussielgue, 1863 (1re édition), 1878 (5e édition) ;
 Petite Géographie moderne, in-18, 160 p., ibid, 1866 (1re édition), 1881 (4e édition) ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne-Victorin_Chichou</t>
+          <t>Eugène-Victorin_Chichou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>J. Appert et De Contades, Bibliographie du canton de la Ferté-Macé, 1882, p. 27 ;
 Noémi-Noire Oursel, Nouvelle bibliographie normande, 1886 ;
